--- a/jayud-mall/jayud-mall-web/src/main/resources/template/nanjing_carton_no.xlsx
+++ b/jayud-mall/jayud-mall-web/src/main/resources/template/nanjing_carton_no.xlsx
@@ -39,12 +39,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,12 +54,59 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -67,30 +114,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -103,9 +144,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -119,18 +159,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -141,68 +196,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -213,67 +206,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -285,43 +356,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,67 +368,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,11 +400,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -427,17 +437,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -466,30 +465,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -504,172 +479,176 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -994,16 +973,17 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="2" width="30.7777777777778" customWidth="1"/>
+    <col min="1" max="2" width="30.7777777777778" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1011,32 +991,32 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/jayud-mall/jayud-mall-web/src/main/resources/template/nanjing_carton_no.xlsx
+++ b/jayud-mall/jayud-mall-web/src/main/resources/template/nanjing_carton_no.xlsx
@@ -14,24 +14,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
-    <t>箱唛</t>
+    <t>请注意标签规格必须不小于10*10CM 否则仓库不予收货</t>
+  </si>
+  <si>
+    <t>{warehouseNo}</t>
+  </si>
+  <si>
+    <t>ADD:</t>
+  </si>
+  <si>
+    <t>{add}</t>
+  </si>
+  <si>
+    <t>件数：</t>
+  </si>
+  <si>
+    <t>{totalCarton}</t>
+  </si>
+  <si>
+    <t>箱唛：</t>
   </si>
   <si>
     <t>{cartonNo}</t>
   </si>
   <si>
-    <t>进仓单号</t>
-  </si>
-  <si>
-    <t>{warehouseNo}</t>
-  </si>
-  <si>
-    <t>箱数比例(n/m)</t>
+    <t>箱数：</t>
   </si>
   <si>
     <t>{cartonRatio}</t>
+  </si>
+  <si>
+    <t>MADE  IN  CHINA</t>
+  </si>
+  <si>
+    <t>{serviceName} 报关</t>
   </si>
 </sst>
 </file>
@@ -40,11 +58,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,98 +72,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="80"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -159,9 +131,78 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,6 +224,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -190,14 +246,14 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -206,19 +262,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.149990007281303"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -230,25 +436,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -260,133 +454,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,47 +465,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -465,6 +492,65 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -479,34 +565,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -515,144 +583,182 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
     <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
@@ -702,6 +808,7 @@
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="Normal" xfId="49"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -970,62 +1077,322 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="2" width="30.7777777777778" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="2.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.3796296296296" style="1" customWidth="1"/>
+    <col min="3" max="7" width="9" style="1" customWidth="1"/>
+    <col min="8" max="8" width="3.12962962962963" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="1" customFormat="1" ht="17" customHeight="1" spans="1:8">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="84" customHeight="1" spans="1:8">
+      <c r="A3" s="2"/>
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="1" customHeight="1" spans="1:8">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="1" customHeight="1" spans="1:8">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A6" s="2"/>
+      <c r="B6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C6" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="2" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="1" customHeight="1" spans="1:8">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="1" customHeight="1" spans="1:8">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A9" s="2"/>
+      <c r="B9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C9" s="7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A10" s="8"/>
+      <c r="B10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A11" s="2"/>
+      <c r="B11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A12" s="2"/>
+      <c r="B12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A15" s="2"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+    </row>
+    <row r="18" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+    </row>
+    <row r="19" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+    </row>
+    <row r="20" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+    </row>
+    <row r="21" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+    </row>
+    <row r="22" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+    </row>
+    <row r="23" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+    </row>
+    <row r="24" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+    </row>
+    <row r="25" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+    </row>
+    <row r="26" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+    </row>
+    <row r="27" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B6"/>
+  <mergeCells count="5">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A18:H18"/>
+    <mergeCell ref="A20:H20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/jayud-mall/jayud-mall-web/src/main/resources/template/nanjing_carton_no.xlsx
+++ b/jayud-mall/jayud-mall-web/src/main/resources/template/nanjing_carton_no.xlsx
@@ -57,12 +57,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,6 +102,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="25"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="20"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -110,14 +118,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -139,7 +147,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,7 +155,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -169,6 +177,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -177,6 +200,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
@@ -184,6 +215,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -192,9 +231,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,7 +240,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,36 +260,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -274,31 +282,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -310,19 +432,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -334,127 +456,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,30 +501,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -533,20 +517,20 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,16 +549,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -583,140 +591,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -745,10 +753,13 @@
     <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1080,7 +1091,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="B1" sqref="B1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1" outlineLevelCol="7"/>
@@ -1224,14 +1235,14 @@
     </row>
     <row r="12" s="1" customFormat="1" ht="30" customHeight="1" spans="1:8">
       <c r="A12" s="2"/>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
       <c r="H12" s="2"/>
     </row>
     <row r="13" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -1256,13 +1267,13 @@
     </row>
     <row r="15" s="1" customFormat="1" ht="30" customHeight="1" spans="1:8">
       <c r="A15" s="2"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10" t="s">
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="10"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="11"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
@@ -1277,120 +1288,121 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
     </row>
     <row r="18" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
     </row>
     <row r="19" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
     </row>
     <row r="20" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
     </row>
     <row r="21" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
     </row>
     <row r="22" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
     </row>
     <row r="23" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
     </row>
     <row r="24" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
     </row>
     <row r="25" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
     </row>
     <row r="26" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
     </row>
     <row r="27" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="A7:B7"/>
+    <mergeCell ref="B12:G12"/>
     <mergeCell ref="A18:H18"/>
     <mergeCell ref="A20:H20"/>
   </mergeCells>

--- a/jayud-mall/jayud-mall-web/src/main/resources/template/nanjing_carton_no.xlsx
+++ b/jayud-mall/jayud-mall-web/src/main/resources/template/nanjing_carton_no.xlsx
@@ -58,9 +58,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -103,7 +103,7 @@
     </font>
     <font>
       <b/>
-      <sz val="25"/>
+      <sz val="40"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -118,6 +118,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -125,7 +132,122 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -138,128 +260,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -282,18 +282,156 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -306,61 +444,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -372,97 +456,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,24 +478,44 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,17 +539,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -550,26 +559,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -579,10 +579,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -591,133 +591,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1091,7 +1091,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:G1"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1" outlineLevelCol="7"/>
@@ -1234,26 +1234,26 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="30" customHeight="1" spans="1:8">
-      <c r="A12" s="2"/>
-      <c r="B12" s="10" t="s">
+      <c r="A12" s="10" t="s">
         <v>10</v>
       </c>
+      <c r="B12" s="10"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
-      <c r="H12" s="2"/>
+      <c r="H12" s="10"/>
     </row>
     <row r="13" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
     </row>
     <row r="14" s="1" customFormat="1" customHeight="1" spans="1:8">
       <c r="A14" s="2"/>
@@ -1402,9 +1402,9 @@
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="A7:B7"/>
-    <mergeCell ref="B12:G12"/>
     <mergeCell ref="A18:H18"/>
     <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A12:H13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/jayud-mall/jayud-mall-web/src/main/resources/template/nanjing_carton_no.xlsx
+++ b/jayud-mall/jayud-mall-web/src/main/resources/template/nanjing_carton_no.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
     <t>MADE  IN  CHINA</t>
   </si>
   <si>
-    <t>{serviceName} 报关</t>
+    <t>{serviceName} {showText}</t>
   </si>
 </sst>
 </file>
@@ -57,8 +57,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -125,12 +125,43 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
@@ -138,26 +169,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -177,17 +224,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,55 +255,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -282,13 +282,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -300,169 +462,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,50 +473,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -538,8 +494,47 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,17 +554,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -579,10 +579,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -591,133 +591,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1091,15 +1091,15 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="2.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.3796296296296" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.3833333333333" style="1" customWidth="1"/>
     <col min="3" max="7" width="9" style="1" customWidth="1"/>
-    <col min="8" max="8" width="3.12962962962963" style="1" customWidth="1"/>
+    <col min="8" max="8" width="3.13333333333333" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
